--- a/natmiOut/OldD7/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
+++ b/natmiOut/OldD7/LR-pairs_lrc2p/Sema6a-Plxna4.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="84" uniqueCount="26">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M2</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,9 +92,6 @@
   </si>
   <si>
     <t>Plxna4</t>
-  </si>
-  <si>
-    <t>M2</t>
   </si>
 </sst>
 </file>
@@ -449,7 +449,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T17"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +522,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>52.3668819881541</v>
+        <v>53.11151633333333</v>
       </c>
       <c r="H2">
-        <v>52.3668819881541</v>
+        <v>159.334549</v>
       </c>
       <c r="I2">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902657</v>
       </c>
       <c r="J2">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902658</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>2.97658944878695</v>
+        <v>3.316186</v>
       </c>
       <c r="N2">
-        <v>2.97658944878695</v>
+        <v>9.948558</v>
       </c>
       <c r="O2">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544791</v>
       </c>
       <c r="P2">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544793</v>
       </c>
       <c r="Q2">
-        <v>155.8747083918109</v>
+        <v>176.1276669033713</v>
       </c>
       <c r="R2">
-        <v>155.8747083918109</v>
+        <v>1585.149002130342</v>
       </c>
       <c r="S2">
-        <v>0.5671073079289152</v>
+        <v>0.5487194978541974</v>
       </c>
       <c r="T2">
-        <v>0.5671073079289152</v>
+        <v>0.5487194978541976</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +584,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>52.3668819881541</v>
+        <v>53.11151633333333</v>
       </c>
       <c r="H3">
-        <v>52.3668819881541</v>
+        <v>159.334549</v>
       </c>
       <c r="I3">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902657</v>
       </c>
       <c r="J3">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902658</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.318130340233399</v>
+        <v>0.4282866666666667</v>
       </c>
       <c r="N3">
-        <v>0.318130340233399</v>
+        <v>1.28486</v>
       </c>
       <c r="O3">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927233</v>
       </c>
       <c r="P3">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927235</v>
       </c>
       <c r="Q3">
-        <v>16.65949398385371</v>
+        <v>22.74695429201556</v>
       </c>
       <c r="R3">
-        <v>16.65949398385371</v>
+        <v>204.72258862814</v>
       </c>
       <c r="S3">
-        <v>0.06061099252159108</v>
+        <v>0.07086732911573156</v>
       </c>
       <c r="T3">
-        <v>0.06061099252159108</v>
+        <v>0.07086732911573158</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +646,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>52.3668819881541</v>
+        <v>53.11151633333333</v>
       </c>
       <c r="H4">
-        <v>52.3668819881541</v>
+        <v>159.334549</v>
       </c>
       <c r="I4">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902657</v>
       </c>
       <c r="J4">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902658</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>0.364847821977872</v>
+        <v>0.417289</v>
       </c>
       <c r="N4">
-        <v>0.364847821977872</v>
+        <v>1.251867</v>
       </c>
       <c r="O4">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356782</v>
       </c>
       <c r="P4">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356783</v>
       </c>
       <c r="Q4">
-        <v>19.10594283715028</v>
+        <v>22.16285153922033</v>
       </c>
       <c r="R4">
-        <v>19.10594283715028</v>
+        <v>199.465663852983</v>
       </c>
       <c r="S4">
-        <v>0.06951172463838447</v>
+        <v>0.06904757771128646</v>
       </c>
       <c r="T4">
-        <v>0.06951172463838447</v>
+        <v>0.06904757771128647</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,61 +708,61 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
+        <v>24</v>
+      </c>
+      <c r="C5" t="s">
+        <v>25</v>
+      </c>
+      <c r="D5" t="s">
         <v>23</v>
       </c>
-      <c r="C5" t="s">
-        <v>24</v>
-      </c>
-      <c r="D5" t="s">
-        <v>22</v>
-      </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>52.3668819881541</v>
+        <v>53.11151633333333</v>
       </c>
       <c r="H5">
-        <v>52.3668819881541</v>
+        <v>159.334549</v>
       </c>
       <c r="I5">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902657</v>
       </c>
       <c r="J5">
-        <v>0.7257398660308646</v>
+        <v>0.7183308303902658</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.149640271863876</v>
+        <v>0.1794703333333333</v>
       </c>
       <c r="N5">
-        <v>0.149640271863876</v>
+        <v>0.538411</v>
       </c>
       <c r="O5">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="P5">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="Q5">
-        <v>7.83619445737089</v>
+        <v>9.53194154018211</v>
       </c>
       <c r="R5">
-        <v>7.83619445737089</v>
+        <v>85.787473861639</v>
       </c>
       <c r="S5">
-        <v>0.0285098409419739</v>
+        <v>0.02969642570905012</v>
       </c>
       <c r="T5">
-        <v>0.0285098409419739</v>
+        <v>0.02969642570905013</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -770,61 +770,61 @@
         <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
         <v>20</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>3.98433994900169</v>
+        <v>4.187132</v>
       </c>
       <c r="H6">
-        <v>3.98433994900169</v>
+        <v>12.561396</v>
       </c>
       <c r="I6">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="J6">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>2.97658944878695</v>
+        <v>3.316186</v>
       </c>
       <c r="N6">
-        <v>2.97658944878695</v>
+        <v>9.948558</v>
       </c>
       <c r="O6">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544791</v>
       </c>
       <c r="P6">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544793</v>
       </c>
       <c r="Q6">
-        <v>11.85974425257876</v>
+        <v>13.885308518552</v>
       </c>
       <c r="R6">
-        <v>11.85974425257876</v>
+        <v>124.967776666968</v>
       </c>
       <c r="S6">
-        <v>0.04314842160858674</v>
+        <v>0.04325918608818308</v>
       </c>
       <c r="T6">
-        <v>0.04314842160858674</v>
+        <v>0.04325918608818308</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -832,61 +832,61 @@
         <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C7" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D7" t="s">
         <v>21</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>3.98433994900169</v>
+        <v>4.187132</v>
       </c>
       <c r="H7">
-        <v>3.98433994900169</v>
+        <v>12.561396</v>
       </c>
       <c r="I7">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="J7">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.318130340233399</v>
+        <v>0.4282866666666667</v>
       </c>
       <c r="N7">
-        <v>0.318130340233399</v>
+        <v>1.28486</v>
       </c>
       <c r="O7">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927233</v>
       </c>
       <c r="P7">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927235</v>
       </c>
       <c r="Q7">
-        <v>1.267539423581431</v>
+        <v>1.793292807173334</v>
       </c>
       <c r="R7">
-        <v>1.267539423581431</v>
+        <v>16.13963526456</v>
       </c>
       <c r="S7">
-        <v>0.004611594001473041</v>
+        <v>0.005586940121097239</v>
       </c>
       <c r="T7">
-        <v>0.004611594001473041</v>
+        <v>0.00558694012109724</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +894,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.98433994900169</v>
+        <v>4.187132</v>
       </c>
       <c r="H8">
-        <v>3.98433994900169</v>
+        <v>12.561396</v>
       </c>
       <c r="I8">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="J8">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.364847821977872</v>
+        <v>0.417289</v>
       </c>
       <c r="N8">
-        <v>0.364847821977872</v>
+        <v>1.251867</v>
       </c>
       <c r="O8">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356782</v>
       </c>
       <c r="P8">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356783</v>
       </c>
       <c r="Q8">
-        <v>1.453677752412692</v>
+        <v>1.747244125148</v>
       </c>
       <c r="R8">
-        <v>1.453677752412692</v>
+        <v>15.725197126332</v>
       </c>
       <c r="S8">
-        <v>0.005288807178998571</v>
+        <v>0.005443477085890788</v>
       </c>
       <c r="T8">
-        <v>0.005288807178998571</v>
+        <v>0.005443477085890789</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,61 +956,61 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
+        <v>24</v>
+      </c>
+      <c r="C9" t="s">
+        <v>25</v>
+      </c>
+      <c r="D9" t="s">
         <v>23</v>
       </c>
-      <c r="C9" t="s">
-        <v>24</v>
-      </c>
-      <c r="D9" t="s">
-        <v>22</v>
-      </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.98433994900169</v>
+        <v>4.187132</v>
       </c>
       <c r="H9">
-        <v>3.98433994900169</v>
+        <v>12.561396</v>
       </c>
       <c r="I9">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="J9">
-        <v>0.0552179971582806</v>
+        <v>0.05663076888328195</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>0.149640271863876</v>
+        <v>0.1794703333333333</v>
       </c>
       <c r="N9">
-        <v>0.149640271863876</v>
+        <v>0.538411</v>
       </c>
       <c r="O9">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="P9">
-        <v>0.03928382920163492</v>
+        <v>0.04134087589268053</v>
       </c>
       <c r="Q9">
-        <v>0.5962177131667147</v>
+        <v>0.7514659757506666</v>
       </c>
       <c r="R9">
-        <v>0.5962177131667147</v>
+        <v>6.763193781756</v>
       </c>
       <c r="S9">
-        <v>0.002169174369222258</v>
+        <v>0.002341165588110834</v>
       </c>
       <c r="T9">
-        <v>0.002169174369222258</v>
+        <v>0.002341165588110834</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1018,10 +1018,10 @@
         <v>22</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C10" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D10" t="s">
         <v>20</v>
@@ -1030,49 +1030,49 @@
         <v>1</v>
       </c>
       <c r="F10">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G10">
-        <v>15.8053240089188</v>
+        <v>0.02264733333333334</v>
       </c>
       <c r="H10">
-        <v>15.8053240089188</v>
+        <v>0.067942</v>
       </c>
       <c r="I10">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="J10">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L10">
         <v>1</v>
       </c>
       <c r="M10">
-        <v>2.97658944878695</v>
+        <v>3.316186</v>
       </c>
       <c r="N10">
-        <v>2.97658944878695</v>
+        <v>9.948558</v>
       </c>
       <c r="O10">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544791</v>
       </c>
       <c r="P10">
-        <v>0.7814195340135786</v>
+        <v>0.7638813129544793</v>
       </c>
       <c r="Q10">
-        <v>47.04596067960676</v>
+        <v>0.07510276973733335</v>
       </c>
       <c r="R10">
-        <v>47.04596067960676</v>
+        <v>0.6759249276360001</v>
       </c>
       <c r="S10">
-        <v>0.1711638044760767</v>
+        <v>0.000233980014737481</v>
       </c>
       <c r="T10">
-        <v>0.1711638044760767</v>
+        <v>0.000233980014737481</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1080,10 +1080,10 @@
         <v>22</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
         <v>21</v>
@@ -1092,49 +1092,49 @@
         <v>1</v>
       </c>
       <c r="F11">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G11">
-        <v>15.8053240089188</v>
+        <v>0.02264733333333334</v>
       </c>
       <c r="H11">
-        <v>15.8053240089188</v>
+        <v>0.067942</v>
       </c>
       <c r="I11">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="J11">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L11">
         <v>1</v>
       </c>
       <c r="M11">
-        <v>0.318130340233399</v>
+        <v>0.4282866666666667</v>
       </c>
       <c r="N11">
-        <v>0.318130340233399</v>
+        <v>1.28486</v>
       </c>
       <c r="O11">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927233</v>
       </c>
       <c r="P11">
-        <v>0.08351614036731639</v>
+        <v>0.09865555829927235</v>
       </c>
       <c r="Q11">
-        <v>5.028153104456448</v>
+        <v>0.009699550902222224</v>
       </c>
       <c r="R11">
-        <v>5.028153104456448</v>
+        <v>0.08729595812000002</v>
       </c>
       <c r="S11">
-        <v>0.01829355384425227</v>
+        <v>3.0218606730302E-05</v>
       </c>
       <c r="T11">
-        <v>0.01829355384425227</v>
+        <v>3.0218606730302E-05</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1142,61 +1142,61 @@
         <v>22</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E12">
         <v>1</v>
       </c>
       <c r="F12">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G12">
-        <v>15.8053240089188</v>
+        <v>0.02264733333333334</v>
       </c>
       <c r="H12">
-        <v>15.8053240089188</v>
+        <v>0.067942</v>
       </c>
       <c r="I12">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="J12">
-        <v>0.2190421368108548</v>
+        <v>0.0003063041479997877</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.364847821977872</v>
+        <v>0.417289</v>
       </c>
       <c r="N12">
-        <v>0.364847821977872</v>
+        <v>1.251867</v>
       </c>
       <c r="O12">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356782</v>
       </c>
       <c r="P12">
-        <v>0.09578049641747012</v>
+        <v>0.09612225285356783</v>
       </c>
       <c r="Q12">
-        <v>5.766538040308594</v>
+        <v>0.009450483079333334</v>
       </c>
       <c r="R12">
-        <v>5.766538040308594</v>
+        <v>0.085054347714</v>
       </c>
       <c r="S12">
-        <v>0.02097996460008708</v>
+        <v>2.944264476413226E-05</v>
       </c>
       <c r="T12">
-        <v>0.02097996460008708</v>
+        <v>2.944264476413226E-05</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1204,61 +1204,309 @@
         <v>22</v>
       </c>
       <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
+      <c r="E13">
+        <v>1</v>
+      </c>
+      <c r="F13">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G13">
+        <v>0.02264733333333334</v>
+      </c>
+      <c r="H13">
+        <v>0.067942</v>
+      </c>
+      <c r="I13">
+        <v>0.0003063041479997877</v>
+      </c>
+      <c r="J13">
+        <v>0.0003063041479997877</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>0.1794703333333333</v>
+      </c>
+      <c r="N13">
+        <v>0.538411</v>
+      </c>
+      <c r="O13">
+        <v>0.04134087589268053</v>
+      </c>
+      <c r="P13">
+        <v>0.04134087589268053</v>
+      </c>
+      <c r="Q13">
+        <v>0.004064524462444445</v>
+      </c>
+      <c r="R13">
+        <v>0.036580720162</v>
+      </c>
+      <c r="S13">
+        <v>1.266288176787248E-05</v>
+      </c>
+      <c r="T13">
+        <v>1.266288176787248E-05</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>23</v>
+      </c>
+      <c r="B14" t="s">
         <v>24</v>
       </c>
-      <c r="D13" t="s">
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>3</v>
+      </c>
+      <c r="F14">
+        <v>1</v>
+      </c>
+      <c r="G14">
+        <v>16.61610766666667</v>
+      </c>
+      <c r="H14">
+        <v>49.848323</v>
+      </c>
+      <c r="I14">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="J14">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>3.316186</v>
+      </c>
+      <c r="N14">
+        <v>9.948558</v>
+      </c>
+      <c r="O14">
+        <v>0.7638813129544791</v>
+      </c>
+      <c r="P14">
+        <v>0.7638813129544793</v>
+      </c>
+      <c r="Q14">
+        <v>55.10210361869267</v>
+      </c>
+      <c r="R14">
+        <v>495.918932568234</v>
+      </c>
+      <c r="S14">
+        <v>0.1716686489973611</v>
+      </c>
+      <c r="T14">
+        <v>0.1716686489973612</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>23</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>3</v>
+      </c>
+      <c r="F15">
+        <v>1</v>
+      </c>
+      <c r="G15">
+        <v>16.61610766666667</v>
+      </c>
+      <c r="H15">
+        <v>49.848323</v>
+      </c>
+      <c r="I15">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="J15">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.4282866666666667</v>
+      </c>
+      <c r="N15">
+        <v>1.28486</v>
+      </c>
+      <c r="O15">
+        <v>0.09865555829927233</v>
+      </c>
+      <c r="P15">
+        <v>0.09865555829927235</v>
+      </c>
+      <c r="Q15">
+        <v>7.116457365531113</v>
+      </c>
+      <c r="R15">
+        <v>64.04811628978001</v>
+      </c>
+      <c r="S15">
+        <v>0.02217107045571323</v>
+      </c>
+      <c r="T15">
+        <v>0.02217107045571323</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>15.8053240089188</v>
-      </c>
-      <c r="H13">
-        <v>15.8053240089188</v>
-      </c>
-      <c r="I13">
-        <v>0.2190421368108548</v>
-      </c>
-      <c r="J13">
-        <v>0.2190421368108548</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>0.149640271863876</v>
-      </c>
-      <c r="N13">
-        <v>0.149640271863876</v>
-      </c>
-      <c r="O13">
-        <v>0.03928382920163492</v>
-      </c>
-      <c r="P13">
-        <v>0.03928382920163492</v>
-      </c>
-      <c r="Q13">
-        <v>2.365112981591256</v>
-      </c>
-      <c r="R13">
-        <v>2.365112981591256</v>
-      </c>
-      <c r="S13">
-        <v>0.008604813890438769</v>
-      </c>
-      <c r="T13">
-        <v>0.008604813890438769</v>
+      <c r="E16">
+        <v>3</v>
+      </c>
+      <c r="F16">
+        <v>1</v>
+      </c>
+      <c r="G16">
+        <v>16.61610766666667</v>
+      </c>
+      <c r="H16">
+        <v>49.848323</v>
+      </c>
+      <c r="I16">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="J16">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="K16">
+        <v>3</v>
+      </c>
+      <c r="L16">
+        <v>1</v>
+      </c>
+      <c r="M16">
+        <v>0.417289</v>
+      </c>
+      <c r="N16">
+        <v>1.251867</v>
+      </c>
+      <c r="O16">
+        <v>0.09612225285356782</v>
+      </c>
+      <c r="P16">
+        <v>0.09612225285356783</v>
+      </c>
+      <c r="Q16">
+        <v>6.933718952115668</v>
+      </c>
+      <c r="R16">
+        <v>62.403470569041</v>
+      </c>
+      <c r="S16">
+        <v>0.02160175541162644</v>
+      </c>
+      <c r="T16">
+        <v>0.02160175541162644</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>23</v>
+      </c>
+      <c r="E17">
+        <v>3</v>
+      </c>
+      <c r="F17">
+        <v>1</v>
+      </c>
+      <c r="G17">
+        <v>16.61610766666667</v>
+      </c>
+      <c r="H17">
+        <v>49.848323</v>
+      </c>
+      <c r="I17">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="J17">
+        <v>0.2247320965784526</v>
+      </c>
+      <c r="K17">
+        <v>3</v>
+      </c>
+      <c r="L17">
+        <v>1</v>
+      </c>
+      <c r="M17">
+        <v>0.1794703333333333</v>
+      </c>
+      <c r="N17">
+        <v>0.538411</v>
+      </c>
+      <c r="O17">
+        <v>0.04134087589268053</v>
+      </c>
+      <c r="P17">
+        <v>0.04134087589268053</v>
+      </c>
+      <c r="Q17">
+        <v>2.982098381639222</v>
+      </c>
+      <c r="R17">
+        <v>26.838885434753</v>
+      </c>
+      <c r="S17">
+        <v>0.009290621713751702</v>
+      </c>
+      <c r="T17">
+        <v>0.009290621713751702</v>
       </c>
     </row>
   </sheetData>
